--- a/z-info/Payment Plan ex.xlsx
+++ b/z-info/Payment Plan ex.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>Mapped</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Total Price After Interst/disc</t>
+  </si>
+  <si>
+    <t>Installment(Per Q)</t>
   </si>
 </sst>
 </file>
@@ -609,14 +612,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
@@ -625,7 +628,7 @@
     <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -646,7 +649,7 @@
       </c>
       <c r="F1" s="3">
         <f>((C5*C3)+(C7*C6))</f>
-        <v>1164000</v>
+        <v>5287405</v>
       </c>
       <c r="G1" s="4"/>
       <c r="I1">
@@ -674,7 +677,7 @@
       </c>
       <c r="F2" s="4">
         <f>F1*C9</f>
-        <v>291000</v>
+        <v>1321851.25</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2">
@@ -692,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>567</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -702,7 +705,7 @@
       </c>
       <c r="F3" s="4">
         <f>F1*C10</f>
-        <v>0</v>
+        <v>158622.15</v>
       </c>
       <c r="G3" s="4">
         <f>4*12*10321.97</f>
@@ -723,7 +726,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -733,7 +736,7 @@
       </c>
       <c r="F4" s="4">
         <f>F1-(F3+F2)</f>
-        <v>873000</v>
+        <v>3806931.6</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -753,7 +756,7 @@
       </c>
       <c r="C5">
         <f>C4*(1-C12)</f>
-        <v>11640</v>
+        <v>9215</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -771,7 +774,7 @@
       </c>
       <c r="L5" s="6">
         <f>F1*C9</f>
-        <v>291000</v>
+        <v>1321851.25</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -781,6 +784,9 @@
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -789,7 +795,7 @@
       </c>
       <c r="F6" s="4">
         <f>(F4/12)*5</f>
-        <v>363750</v>
+        <v>1586221.5</v>
       </c>
       <c r="G6" s="4"/>
       <c r="I6">
@@ -806,6 +812,9 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C7">
+        <v>1250</v>
+      </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -814,7 +823,7 @@
       </c>
       <c r="F7" s="4">
         <f>F6*VLOOKUP($C$8,$I$1:$J$6,2,0)</f>
-        <v>106396.875</v>
+        <v>463969.78874999995</v>
       </c>
       <c r="G7" s="4"/>
       <c r="J7" s="7"/>
@@ -837,11 +846,11 @@
       </c>
       <c r="F8" s="4">
         <f>F7+F4+F2+F3-(F4*C13)</f>
-        <v>1270396.875</v>
+        <v>5751374.7887500003</v>
       </c>
       <c r="G8" s="8">
         <f>F8-H10</f>
-        <v>1213916.71875</v>
+        <v>5918943.5281875003</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -863,14 +872,14 @@
       </c>
       <c r="F9" s="4">
         <f>F8*C9</f>
-        <v>317599.21875</v>
+        <v>1437843.6971875001</v>
       </c>
       <c r="G9" s="9">
         <v>600000</v>
       </c>
       <c r="H9" s="4">
         <f>G9-F9</f>
-        <v>282400.78125</v>
+        <v>-837843.69718750007</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -881,7 +890,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -891,14 +900,14 @@
       </c>
       <c r="F10" s="10">
         <f>F8*C10</f>
-        <v>0</v>
+        <v>172541.2436625</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="4">
         <f>H9*20%</f>
-        <v>56480.15625</v>
+        <v>-167568.73943750001</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -915,11 +924,11 @@
         <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F11" s="4">
         <f>(F8-SUM(F9:F10)-(F13*C8))/(C8*4)</f>
-        <v>10321.974609375</v>
+        <v>43135.310915625007</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -941,7 +950,7 @@
       </c>
       <c r="F12" s="4">
         <f>F8/C3</f>
-        <v>12703.96875</v>
+        <v>10143.518145943563</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -963,9 +972,13 @@
       </c>
       <c r="F13" s="4">
         <f>F8*C11</f>
-        <v>38111.90625</v>
+        <v>172541.2436625</v>
       </c>
       <c r="G13" s="4"/>
+      <c r="K13" s="6">
+        <f>F6/4</f>
+        <v>396555.375</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -986,8 +999,8 @@
         <v>2</v>
       </c>
       <c r="H15" s="3">
-        <f>(C3*C5)+(C6+C7)</f>
-        <v>1164000</v>
+        <f>(C3*C5)+(C6*C7)</f>
+        <v>5287405</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1009,7 +1022,7 @@
       </c>
       <c r="H16" s="4">
         <f>H15*C9</f>
-        <v>291000</v>
+        <v>1321851.25</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -1027,7 +1040,7 @@
       </c>
       <c r="H17" s="4">
         <f>H15-H16</f>
-        <v>873000</v>
+        <v>3965553.75</v>
       </c>
       <c r="I17" s="15"/>
     </row>
@@ -1067,7 +1080,7 @@
       </c>
       <c r="H19" s="4">
         <f>H15+H18</f>
-        <v>1164000</v>
+        <v>5287405</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -1085,7 +1098,7 @@
       </c>
       <c r="H20" s="4">
         <f>(H19-H16)/(C8*4)</f>
-        <v>18187.5</v>
+        <v>82615.703125</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
